--- a/biology/Zoologie/Caligo_euphorbus/Caligo_euphorbus.xlsx
+++ b/biology/Zoologie/Caligo_euphorbus/Caligo_euphorbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo euphorbus est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae et du genre Caligo.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo euphorbus a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1862 sous le nom initial de Pavonia superbus[1].
-Sous-espèces
-Caligo euphorbus euphorbus
-Caligo euphorbus menoetius Staudinger, 1887[1].
-Caligo euphorbus alukuma Brévignon, 2005[2].
-Nom vernaculaire
-Caligo euphorbus se nomme Euphorbus Giant Owl en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo euphorbus a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1862 sous le nom initial de Pavonia superbus.
 </t>
         </is>
       </c>
@@ -545,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le revers est ocre doré marbré de gris argent avec un très gros ocelle noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caligo euphorbus euphorbus
+Caligo euphorbus menoetius Staudinger, 1887.
+Caligo euphorbus alukuma Brévignon, 2005.</t>
         </is>
       </c>
     </row>
@@ -576,10 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo euphorbus se nomme Euphorbus Giant Owl en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,15 +628,112 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le revers est ocre doré marbré de gris argent avec un très gros ocelle noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caligo_euphorbus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_euphorbus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caligo_euphorbus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_euphorbus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo euphorbus est présent en Bolivie, au Pérou, au Brésil et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo euphorbus est présent en Bolivie, au Pérou, au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caligo_euphorbus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_euphorbus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
